--- a/public/storage/souvenirUsers.xlsx
+++ b/public/storage/souvenirUsers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\mpu-crm\storage\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10143952-A1E3-4C82-9972-01E49CCDE63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E248244F-395B-4436-BDFB-F9E1FED95E67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="24705" xr2:uid="{F3E07AF1-43BB-432F-9739-45A146350FEC}"/>
   </bookViews>
@@ -146,18 +146,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,15 +167,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +497,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,101 +506,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>64562102</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>61231546</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/storage/souvenirUsers.xlsx
+++ b/public/storage/souvenirUsers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\mpu-crm\storage\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E248244F-395B-4436-BDFB-F9E1FED95E67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79614E-616B-43B4-8E0E-69B8D4377C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="24705" xr2:uid="{F3E07AF1-43BB-432F-9739-45A146350FEC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>p2000020@mpu.edu.mo</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>p2500028</t>
+  </si>
+  <si>
+    <t>grad_year</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E31CAC-3C40-4D14-82F7-1DA70453B9DC}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +508,7 @@
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,10 +531,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -554,10 +560,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -580,10 +589,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="3">
+        <v>2026</v>
+      </c>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -593,11 +605,12 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -608,6 +621,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
